--- a/redis设计.xlsx
+++ b/redis设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>hash</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weeknum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,15 +62,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>appid:appid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id:id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>APPID和用户id对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用户个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用户每日信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeksteps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthsteps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekdistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthdistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>步数每周排行集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步数每月排行集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公里数每周排行集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公里数每月排行集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid(值为id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,91 +462,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>1</v>
       </c>
     </row>

--- a/redis设计.xlsx
+++ b/redis设计.xlsx
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weeksteps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthsteps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weekdistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +110,14 @@
   </si>
   <si>
     <t>appid(值为id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeksteps:周一的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthsteps:月份数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,13 +465,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -537,13 +538,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -554,13 +555,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -571,16 +572,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -588,16 +589,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
